--- a/data/trans_orig/IP22B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22B-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{274AA082-2CFF-47F4-BC4F-53F08B39FB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4DE357F-C615-4FE1-B566-29E309F82058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7FA1EB53-4674-4D6A-91DD-831D6D943F53}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DDA41FFE-79AA-4163-A984-44E512810727}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -71,18 +71,123 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>53,56%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>Un servicio de urgencias no hospitalario de la S.S./S.A.S.</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>Un servicio privado urgencia</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>Un sanatorio, hospital o clínica privada</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
     <t>Otras</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
     <t>1,44%</t>
   </si>
   <si>
@@ -95,319 +200,307 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>Un sanatorio, hospital o clínica privada</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>Un servicio de urgencias no hospitalario de la S.S./S.A.S.</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>Un servicio privado urgencia</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
     <t>2,77%</t>
   </si>
   <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
     <t>3,48%</t>
   </si>
   <si>
     <t>1,56%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -419,379 +512,385 @@
     <t>1,93%</t>
   </si>
   <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
     <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2012 (Tasa respuesta: 25,35%)</t>
   </si>
   <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
     <t>1,77%</t>
   </si>
   <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
     <t>1,71%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
   </si>
   <si>
     <t>0,79%</t>
@@ -800,108 +899,102 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>49,21%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
     <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2015 (Tasa respuesta: 17,12%)</t>
   </si>
   <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
     <t>9,2%</t>
   </si>
   <si>
@@ -914,291 +1007,303 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
     <t>3,9%</t>
   </si>
   <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>49,03%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
     <t>2,62%</t>
   </si>
   <si>
@@ -1211,114 +1316,93 @@
     <t>1,31%</t>
   </si>
   <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>63,52%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
     <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2023 (Tasa respuesta: 15,36%)</t>
   </si>
   <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
     <t>4,78%</t>
   </si>
   <si>
@@ -1328,88 +1412,211 @@
     <t>2,49%</t>
   </si>
   <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>2,86%</t>
@@ -1418,211 +1625,106 @@
     <t>2,74%</t>
   </si>
   <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>1,3%</t>
@@ -1632,108 +1734,6 @@
   </si>
   <si>
     <t>0,65%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
   </si>
 </sst>
 </file>
@@ -2125,7 +2125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70F0E6C-FD56-4D5D-8F89-971AA3CBB5F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08B54C5A-4BF5-428A-B998-BC5A5F1424D2}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2243,10 +2243,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>38262</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2258,235 +2258,235 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="I4" s="7">
-        <v>846</v>
+        <v>31385</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="N4" s="7">
-        <v>846</v>
+        <v>69647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>38262</v>
+        <v>19587</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>31385</v>
+        <v>23819</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="N5" s="7">
-        <v>69647</v>
+        <v>43405</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>648</v>
+        <v>3327</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>2545</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N6" s="7">
-        <v>648</v>
+        <v>5872</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>19587</v>
+        <v>648</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>23819</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>43405</v>
+        <v>648</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>3327</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="H8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>2545</v>
+        <v>846</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>5872</v>
+        <v>846</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>52</v>
@@ -2551,253 +2551,253 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>22569</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>14942</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="M10" s="7">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>37511</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>24891</v>
+        <v>24559</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I11" s="7">
-        <v>20293</v>
+        <v>18704</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>45183</v>
+        <v>43263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>725</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12" s="7">
-        <v>1123</v>
+        <v>2651</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>1123</v>
+        <v>3376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>18470</v>
+        <v>685</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>13947</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="M13" s="7">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>32416</v>
+        <v>685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>687</v>
+        <v>720</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>2688</v>
+        <v>720</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,10 +2806,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D15" s="7">
-        <v>45362</v>
+        <v>48539</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>53</v>
@@ -2821,10 +2821,10 @@
         <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I15" s="7">
-        <v>36049</v>
+        <v>37017</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>53</v>
@@ -2836,10 +2836,10 @@
         <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="N15" s="7">
-        <v>81410</v>
+        <v>85556</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>53</v>
@@ -2853,256 +2853,256 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>24891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>720</v>
+        <v>20293</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="N16" s="7">
-        <v>720</v>
+        <v>45183</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>22569</v>
+        <v>18470</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="7">
-        <v>14942</v>
+        <v>13947</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N17" s="7">
-        <v>37511</v>
+        <v>32416</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>3</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2001</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="7">
         <v>1</v>
       </c>
-      <c r="D18" s="7">
-        <v>685</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
       <c r="I18" s="7">
-        <v>0</v>
+        <v>687</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>685</v>
+        <v>2688</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>24559</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>18704</v>
+        <v>1123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="N19" s="7">
-        <v>43263</v>
+        <v>1123</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>2651</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>3376</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>122</v>
@@ -3114,10 +3114,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D21" s="7">
-        <v>48539</v>
+        <v>45362</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>53</v>
@@ -3129,10 +3129,10 @@
         <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="7">
-        <v>37017</v>
+        <v>36049</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>53</v>
@@ -3144,10 +3144,10 @@
         <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="N21" s="7">
-        <v>85556</v>
+        <v>81410</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>53</v>
@@ -3167,250 +3167,250 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>85722</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="I22" s="7">
-        <v>1566</v>
+        <v>66619</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>229</v>
       </c>
       <c r="N22" s="7">
-        <v>1566</v>
+        <v>152342</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="D23" s="7">
-        <v>85722</v>
+        <v>62616</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="I23" s="7">
-        <v>66619</v>
+        <v>56470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="N23" s="7">
-        <v>152342</v>
+        <v>119085</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>1333</v>
+        <v>6053</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>1123</v>
+        <v>5883</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N24" s="7">
-        <v>2457</v>
+        <v>11937</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>62616</v>
+        <v>1333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H25" s="7">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="I25" s="7">
-        <v>56470</v>
+        <v>1123</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>42</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="N25" s="7">
-        <v>119085</v>
+        <v>2457</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>6053</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>149</v>
+        <v>42</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>5883</v>
+        <v>1566</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="M26" s="7">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>11937</v>
+        <v>1566</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>154</v>
+        <v>46</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>155</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>156</v>
@@ -3483,7 +3483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54397F1-21C4-4396-B06A-70F21C871F84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829CCBAE-FF56-46F9-8D31-CD41391EBB27}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3601,250 +3601,250 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>44017</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>43529</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>87546</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D5" s="7">
-        <v>44017</v>
+        <v>29004</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H5" s="7">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>43529</v>
+        <v>28112</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="N5" s="7">
-        <v>87546</v>
+        <v>57116</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
+        <v>1927</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>1464</v>
+        <v>1254</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>1464</v>
+        <v>3182</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>29004</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>28112</v>
+        <v>1464</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>57116</v>
+        <v>1464</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1927</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>3182</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>186</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>187</v>
@@ -3909,253 +3909,253 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>37809</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>31514</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>69322</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>26846</v>
+        <v>28512</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>15590</v>
+        <v>25298</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="N11" s="7">
-        <v>42435</v>
+        <v>53809</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>2205</v>
+        <v>2094</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>2054</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>2205</v>
+        <v>4149</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>31473</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>44</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>13926</v>
+        <v>2214</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>45399</v>
+        <v>2214</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>1512</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>1379</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>214</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>2891</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,10 +4164,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D15" s="7">
-        <v>62036</v>
+        <v>68415</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>53</v>
@@ -4179,10 +4179,10 @@
         <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="I15" s="7">
-        <v>30895</v>
+        <v>61080</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>53</v>
@@ -4194,10 +4194,10 @@
         <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="N15" s="7">
-        <v>92931</v>
+        <v>129494</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>53</v>
@@ -4211,259 +4211,259 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>26846</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>15590</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>42435</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>48</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>37809</v>
+        <v>31473</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I17" s="7">
-        <v>31514</v>
+        <v>13926</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="N17" s="7">
-        <v>69322</v>
+        <v>45399</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
+        <v>1512</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="7">
-        <v>2214</v>
+        <v>1379</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>230</v>
+        <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" s="7">
-        <v>2214</v>
+        <v>2891</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>28512</v>
+        <v>2205</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="H19" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>25298</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>42</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>53809</v>
+        <v>2205</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>2094</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>2054</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>4149</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,10 +4472,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D21" s="7">
-        <v>68415</v>
+        <v>62036</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>53</v>
@@ -4487,10 +4487,10 @@
         <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="I21" s="7">
-        <v>61080</v>
+        <v>30895</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>53</v>
@@ -4502,10 +4502,10 @@
         <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="N21" s="7">
-        <v>129494</v>
+        <v>92931</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>53</v>
@@ -4525,250 +4525,250 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>108672</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>90632</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>199304</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D23" s="7">
-        <v>108672</v>
+        <v>88989</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>253</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="I23" s="7">
-        <v>90632</v>
+        <v>67335</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
-        <v>287</v>
+        <v>222</v>
       </c>
       <c r="N23" s="7">
-        <v>199304</v>
+        <v>156324</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>2205</v>
+        <v>5534</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>3678</v>
+        <v>4688</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M24" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>5883</v>
+        <v>10222</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>125</v>
+        <v>3</v>
       </c>
       <c r="D25" s="7">
-        <v>88989</v>
+        <v>2205</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>35</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H25" s="7">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>67335</v>
+        <v>3678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
-        <v>222</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>156324</v>
+        <v>5883</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>5534</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>277</v>
+        <v>42</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>278</v>
+        <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>4688</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M26" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>10222</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>283</v>
+        <v>42</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>284</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>285</v>
@@ -4841,7 +4841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AA9080-A1A1-450F-99FE-7A8D7B0E747A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B46B25-7674-410D-A4AE-8BD6CF166158}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4959,250 +4959,250 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>634</v>
+        <v>30625</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>102</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>32290</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="N4" s="7">
-        <v>634</v>
+        <v>62915</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7">
-        <v>30625</v>
+        <v>10672</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>32290</v>
+        <v>11405</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="N5" s="7">
-        <v>62915</v>
+        <v>22077</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7">
-        <v>567</v>
+        <v>2549</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7</v>
+      </c>
+      <c r="I6" s="7">
+        <v>4534</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="M6" s="7">
         <v>11</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>544</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="M6" s="7">
-        <v>2</v>
-      </c>
       <c r="N6" s="7">
-        <v>1110</v>
+        <v>7083</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>10672</v>
+        <v>567</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>11405</v>
+        <v>544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>309</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>22077</v>
+        <v>1110</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>312</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>2549</v>
+        <v>634</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>81</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>4534</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>319</v>
       </c>
       <c r="M8" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>7083</v>
+        <v>634</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>321</v>
@@ -5267,208 +5267,208 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>18493</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>19574</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>38067</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7">
+        <v>9693</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="7">
+        <v>26</v>
+      </c>
+      <c r="I11" s="7">
+        <v>16397</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="M11" s="7">
         <v>40</v>
       </c>
-      <c r="D11" s="7">
-        <v>29671</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H11" s="7">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
-        <v>16608</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M11" s="7">
-        <v>64</v>
-      </c>
       <c r="N11" s="7">
-        <v>46278</v>
+        <v>26090</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>2</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1175</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="H12" s="7">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
-        <v>2941</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
       <c r="I12" s="7">
-        <v>626</v>
+        <v>2676</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="M12" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>3567</v>
+        <v>3851</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>344</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>13030</v>
+        <v>1920</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="H13" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>14733</v>
+        <v>1274</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>344</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="M13" s="7">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>27763</v>
+        <v>3194</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -5477,43 +5477,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>349</v>
+        <v>42</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>46</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>765</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,10 +5522,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D15" s="7">
-        <v>45642</v>
+        <v>31281</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>53</v>
@@ -5537,10 +5537,10 @@
         <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="I15" s="7">
-        <v>32733</v>
+        <v>39921</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>53</v>
@@ -5552,10 +5552,10 @@
         <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N15" s="7">
-        <v>78374</v>
+        <v>71202</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>53</v>
@@ -5569,256 +5569,256 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>29671</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>16608</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>359</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>360</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>46278</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>362</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D17" s="7">
-        <v>18493</v>
+        <v>13030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
-        <v>19574</v>
+        <v>14733</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="N17" s="7">
-        <v>38067</v>
+        <v>27763</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>1920</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>363</v>
+        <v>42</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>364</v>
+        <v>44</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>1274</v>
+        <v>765</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>375</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>366</v>
+        <v>33</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N18" s="7">
-        <v>3194</v>
+        <v>765</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>367</v>
+        <v>184</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>315</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>9693</v>
+        <v>2941</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H19" s="7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>16397</v>
+        <v>626</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>373</v>
+        <v>42</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="M19" s="7">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>26090</v>
+        <v>3567</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>375</v>
+        <v>43</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>378</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>2676</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>380</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>3851</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>382</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>384</v>
@@ -5830,10 +5830,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D21" s="7">
-        <v>31281</v>
+        <v>45642</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>53</v>
@@ -5845,10 +5845,10 @@
         <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="I21" s="7">
-        <v>39921</v>
+        <v>32733</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>53</v>
@@ -5860,10 +5860,10 @@
         <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N21" s="7">
-        <v>71202</v>
+        <v>78374</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>53</v>
@@ -5883,250 +5883,250 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>112</v>
       </c>
       <c r="D22" s="7">
-        <v>634</v>
+        <v>78789</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>385</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>386</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>68472</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>388</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>389</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="N22" s="7">
-        <v>634</v>
+        <v>147261</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>11</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="D23" s="7">
-        <v>78789</v>
+        <v>33395</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H23" s="7">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="I23" s="7">
-        <v>68472</v>
+        <v>42535</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M23" s="7">
-        <v>219</v>
+        <v>114</v>
       </c>
       <c r="N23" s="7">
-        <v>147261</v>
+        <v>75931</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D24" s="7">
-        <v>5428</v>
+        <v>3724</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H24" s="7">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="I24" s="7">
-        <v>2444</v>
+        <v>7975</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M24" s="7">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N24" s="7">
-        <v>7872</v>
+        <v>11699</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>33395</v>
+        <v>5428</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="H25" s="7">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="I25" s="7">
-        <v>42535</v>
+        <v>2444</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="M25" s="7">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>75931</v>
+        <v>7872</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>3724</v>
+        <v>634</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>416</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>417</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H26" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>7975</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>419</v>
+        <v>42</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>420</v>
+        <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M26" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>11699</v>
+        <v>634</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>423</v>
+        <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>424</v>
@@ -6199,7 +6199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B428131E-70C3-4538-ABFF-44D30D37BC7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B5745A-EB98-433E-83D4-721371699DC0}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6317,250 +6317,250 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>13841</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>426</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>427</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>12783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>429</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>430</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>26625</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>432</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>13841</v>
+        <v>4628</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>12783</v>
+        <v>3816</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="M5" s="7">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>26625</v>
+        <v>8445</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>58</v>
+        <v>441</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1282</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1327</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="M6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
-        <v>2032</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="H6" s="7">
-        <v>1</v>
-      </c>
-      <c r="I6" s="7">
-        <v>461</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="M6" s="7">
-        <v>5</v>
-      </c>
       <c r="N6" s="7">
-        <v>2493</v>
+        <v>2609</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>442</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>335</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>4628</v>
+        <v>2032</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>3816</v>
+        <v>461</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>447</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M7" s="7">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>8445</v>
+        <v>2493</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>450</v>
+        <v>413</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>451</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1282</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>452</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1327</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>454</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>455</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>2609</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>44</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>456</v>
@@ -6625,253 +6625,253 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>21879</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>457</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>458</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>22977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>460</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>461</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>44856</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>463</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>464</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>102</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>33433</v>
+        <v>7455</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="H11" s="7">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>29758</v>
+        <v>3124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="M11" s="7">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="N11" s="7">
-        <v>63191</v>
+        <v>10579</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>5</v>
+      </c>
+      <c r="D12" s="7">
+        <v>3705</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="H12" s="7">
         <v>3</v>
       </c>
-      <c r="D12" s="7">
-        <v>2515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6</v>
-      </c>
       <c r="I12" s="7">
-        <v>4683</v>
+        <v>2123</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="M12" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>7197</v>
+        <v>5828</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>475</v>
+        <v>34</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>14318</v>
+        <v>433</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>478</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I13" s="7">
-        <v>11268</v>
+        <v>1692</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>480</v>
+        <v>304</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>481</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M13" s="7">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="N13" s="7">
-        <v>25586</v>
+        <v>2125</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="7">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3390</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>488</v>
-      </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I14" s="7">
-        <v>4192</v>
+        <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7582</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,10 +6880,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D15" s="7">
-        <v>53656</v>
+        <v>33473</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>53</v>
@@ -6895,10 +6895,10 @@
         <v>53</v>
       </c>
       <c r="H15" s="7">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="I15" s="7">
-        <v>49901</v>
+        <v>29915</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>53</v>
@@ -6910,10 +6910,10 @@
         <v>53</v>
       </c>
       <c r="M15" s="7">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="N15" s="7">
-        <v>103557</v>
+        <v>63388</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>53</v>
@@ -6927,259 +6927,259 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>33433</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>490</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>491</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>492</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>29758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>493</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>494</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>47</v>
+        <v>495</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>63191</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>496</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>497</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
         <v>18</v>
       </c>
-      <c r="C17" s="7">
-        <v>26</v>
-      </c>
       <c r="D17" s="7">
-        <v>21879</v>
+        <v>14318</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H17" s="7">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="I17" s="7">
-        <v>22977</v>
+        <v>11268</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M17" s="7">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="N17" s="7">
-        <v>44856</v>
+        <v>25586</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>433</v>
+        <v>3390</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>509</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="H18" s="7">
         <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>1692</v>
+        <v>4192</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>314</v>
+        <v>511</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>284</v>
+        <v>512</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="M18" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N18" s="7">
-        <v>2125</v>
+        <v>7582</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2515</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H19" s="7">
+        <v>6</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4683</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="M19" s="7">
         <v>9</v>
       </c>
-      <c r="D19" s="7">
-        <v>7455</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>512</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3124</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="M19" s="7">
-        <v>14</v>
-      </c>
       <c r="N19" s="7">
-        <v>10579</v>
+        <v>7197</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>3705</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>520</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>521</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>2123</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>523</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>524</v>
+        <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="M20" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>5828</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>526</v>
+        <v>42</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>527</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,10 +7188,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D21" s="7">
-        <v>33473</v>
+        <v>53656</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>53</v>
@@ -7203,10 +7203,10 @@
         <v>53</v>
       </c>
       <c r="H21" s="7">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I21" s="7">
-        <v>29915</v>
+        <v>49901</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>53</v>
@@ -7218,10 +7218,10 @@
         <v>53</v>
       </c>
       <c r="M21" s="7">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="N21" s="7">
-        <v>63388</v>
+        <v>103557</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>53</v>
@@ -7241,250 +7241,250 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>69153</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>528</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>529</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>65519</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>531</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>532</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>134672</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>534</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>535</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="D23" s="7">
-        <v>69153</v>
+        <v>26402</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H23" s="7">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="I23" s="7">
-        <v>65519</v>
+        <v>18208</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="M23" s="7">
-        <v>188</v>
+        <v>68</v>
       </c>
       <c r="N23" s="7">
-        <v>134672</v>
+        <v>44610</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>4980</v>
+        <v>8377</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>541</v>
+        <v>476</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="H24" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7">
-        <v>6836</v>
+        <v>7642</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="M24" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N24" s="7">
-        <v>11815</v>
+        <v>16019</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>52</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>26402</v>
+        <v>4980</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H25" s="7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I25" s="7">
-        <v>18208</v>
+        <v>6836</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="M25" s="7">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="N25" s="7">
-        <v>44610</v>
+        <v>11815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>556</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>8377</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>557</v>
+        <v>42</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>521</v>
+        <v>44</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="H26" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>7642</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>559</v>
+        <v>42</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>560</v>
+        <v>44</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M26" s="7">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="N26" s="7">
-        <v>16019</v>
+        <v>0</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>562</v>
+        <v>42</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>563</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>564</v>

--- a/data/trans_orig/IP22B-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP22B-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5329556-0748-43BD-AA30-B2C8E1ECC179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63C53B47-44BD-4DDE-BEDE-BCE1C4E3E645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F907F9E3-F8D4-4090-A5C0-D07FA8056E3C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5BA10D3A-C087-405F-AA04-D52BD72BCE41}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="670">
   <si>
     <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2007 (Tasa respuesta: 20,63%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>2,55%</t>
   </si>
   <si>
-    <t>12,38%</t>
+    <t>12,77%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>5,95%</t>
+    <t>8,04%</t>
   </si>
   <si>
     <t>Un sanatorio, hospital o clínica privada</t>
@@ -101,7 +101,7 @@
     <t>1,98%</t>
   </si>
   <si>
-    <t>9,78%</t>
+    <t>10,02%</t>
   </si>
   <si>
     <t>3,61%</t>
@@ -110,1921 +110,1945 @@
     <t>0,98%</t>
   </si>
   <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>Un servicio privado urgencia</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>Un servicio de urgencias no hospitalario de la S.S./S.A.S.</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>Un servicio privado urgencia</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>57,38%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2012 (Tasa respuesta: 25,35%)</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2016 (Tasa respuesta: 17,12%)</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
   </si>
   <si>
     <t>11,58%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>Un servicio de urgencias no hospitalario de la S.S./S.A.S.</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>Un hospital de la Seguridad Social/S.A.S. (Servicio Andaluz</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
   </si>
   <si>
     <t>45,3%</t>
   </si>
   <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>43,7%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
   </si>
   <si>
     <t>55,54%</t>
   </si>
   <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2023 (Tasa respuesta: 15,36%)</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
   </si>
   <si>
     <t>36,49%</t>
   </si>
   <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>46,15%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2012 (Tasa respuesta: 25,35%)</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>50,76%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
-  </si>
-  <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2015 (Tasa respuesta: 17,12%)</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>Menores según de la organización a la que acudió la ultima vez que necesitó un servicio de urgencias en 2023 (Tasa respuesta: 15,36%)</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>44,63%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
+    <t>13,73%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>4,87%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>24,24%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
   </si>
   <si>
     <t>18,54%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>71,4%</t>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
   </si>
   <si>
     <t>66,72%</t>
   </si>
   <si>
-    <t>59,18%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
   </si>
   <si>
     <t>65,02%</t>
   </si>
   <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
 </sst>
 </file>
@@ -2436,7 +2460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9330A7F-F6C4-474B-B00E-5B5010A1A35B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBB4D2C-6883-464C-86EE-3640A43AA7C8}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2991,7 +3015,7 @@
         <v>64</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -3000,13 +3024,13 @@
         <v>3372</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3045,13 @@
         <v>36224</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3036,13 +3060,13 @@
         <v>28043</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>97</v>
@@ -3051,13 +3075,13 @@
         <v>64267</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3096,13 @@
         <v>31308</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>31</v>
@@ -3087,13 +3111,13 @@
         <v>20572</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>78</v>
@@ -3102,13 +3126,13 @@
         <v>51880</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3188,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3182,7 +3206,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3233,7 +3257,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3284,7 +3308,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -3828,7 +3852,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>156</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3867,13 @@
         <v>1333</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -3864,7 +3888,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>31</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -3876,10 +3900,10 @@
         <v>158</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,7 +3918,7 @@
         <v>6053</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>162</v>
@@ -3912,10 +3936,10 @@
         <v>164</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -3924,10 +3948,10 @@
         <v>11937</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>168</v>
@@ -4108,7 +4132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{841DC2BF-628C-4427-9EC9-8FE6CDA59914}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0539B4-C24D-4748-9BAB-CFE918F8D4DD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4672,13 +4696,13 @@
         <v>3427</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,13 +4717,13 @@
         <v>46634</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -4708,13 +4732,13 @@
         <v>30534</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>107</v>
@@ -4723,13 +4747,13 @@
         <v>77168</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,13 +4768,13 @@
         <v>46827</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -4759,13 +4783,13 @@
         <v>39729</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M14" s="7">
         <v>121</v>
@@ -4774,13 +4798,13 @@
         <v>86557</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,7 +4860,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4854,7 +4878,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4869,7 +4893,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4884,7 +4908,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4923,13 @@
         <v>951</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4920,7 +4944,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -4929,13 +4953,13 @@
         <v>951</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>165</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,7 +4980,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -4965,13 +4989,13 @@
         <v>2101</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -4980,13 +5004,13 @@
         <v>2101</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5025,13 @@
         <v>11199</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -5016,13 +5040,13 @@
         <v>10831</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -5031,13 +5055,13 @@
         <v>22029</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5076,13 @@
         <v>15432</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>14</v>
@@ -5067,13 +5091,13 @@
         <v>9698</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>36</v>
@@ -5082,13 +5106,13 @@
         <v>25129</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5162,7 +5186,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5177,7 +5201,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5192,7 +5216,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5231,13 @@
         <v>1254</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5228,7 +5252,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>2</v>
@@ -5237,13 +5261,13 @@
         <v>1254</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5282,13 @@
         <v>1512</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5279,7 +5303,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M24" s="7">
         <v>2</v>
@@ -5288,13 +5312,13 @@
         <v>1512</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,13 +5333,13 @@
         <v>21669</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>295</v>
+        <v>147</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -5324,13 +5348,13 @@
         <v>8203</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>45</v>
@@ -5339,13 +5363,13 @@
         <v>29872</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5384,13 @@
         <v>18395</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -5375,13 +5399,13 @@
         <v>10671</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -5390,13 +5414,13 @@
         <v>29067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,7 +5494,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -5485,7 +5509,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>313</v>
+        <v>234</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -5500,7 +5524,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5539,13 @@
         <v>2205</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>66</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -5530,13 +5554,13 @@
         <v>3678</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -5545,13 +5569,13 @@
         <v>5883</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5590,13 @@
         <v>5534</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -5581,13 +5605,13 @@
         <v>4688</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>327</v>
+        <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M30" s="7">
         <v>15</v>
@@ -5596,13 +5620,13 @@
         <v>10222</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>330</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5641,13 @@
         <v>88989</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
       <c r="H31" s="7">
         <v>97</v>
@@ -5632,13 +5656,13 @@
         <v>67335</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="M31" s="7">
         <v>222</v>
@@ -5647,13 +5671,13 @@
         <v>156324</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5692,13 @@
         <v>108672</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>340</v>
+        <v>136</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="H32" s="7">
         <v>132</v>
@@ -5683,13 +5707,13 @@
         <v>90632</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="M32" s="7">
         <v>287</v>
@@ -5698,13 +5722,13 @@
         <v>199304</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>248</v>
+        <v>342</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,7 +5804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D389069F-5A1F-4231-AEDF-E792A87BEA54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F6E260-1F4A-4C19-98B2-A7415BB7583F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5797,7 +5821,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5910,7 +5934,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>62</v>
+        <v>344</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5925,7 +5949,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5940,7 +5964,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,7 +5985,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>62</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5970,13 +5994,13 @@
         <v>544</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5991,7 +6015,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6030,13 @@
         <v>1117</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -6021,13 +6045,13 @@
         <v>3336</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M6" s="7">
         <v>7</v>
@@ -6036,13 +6060,13 @@
         <v>4452</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>359</v>
+        <v>230</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6081,13 @@
         <v>5843</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>358</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -6072,13 +6096,13 @@
         <v>5804</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -6087,13 +6111,13 @@
         <v>11647</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6108,13 +6132,13 @@
         <v>17056</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -6123,13 +6147,13 @@
         <v>18322</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -6138,13 +6162,13 @@
         <v>35377</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,13 +6236,13 @@
         <v>634</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6233,7 +6257,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -6242,13 +6266,13 @@
         <v>634</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6263,13 +6287,13 @@
         <v>1724</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>264</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6284,7 +6308,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -6293,13 +6317,13 @@
         <v>1724</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6314,10 +6338,10 @@
         <v>1981</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>386</v>
@@ -6347,10 +6371,10 @@
         <v>390</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6365,13 +6389,13 @@
         <v>11842</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -6383,10 +6407,10 @@
         <v>395</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M13" s="7">
         <v>44</v>
@@ -6395,13 +6419,13 @@
         <v>28569</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6416,13 +6440,13 @@
         <v>24758</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -6431,13 +6455,13 @@
         <v>25237</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M14" s="7">
         <v>78</v>
@@ -6446,13 +6470,13 @@
         <v>49996</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6508,7 +6532,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6526,7 +6550,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6541,7 +6565,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6556,7 +6580,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6571,13 +6595,13 @@
         <v>2227</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -6586,13 +6610,13 @@
         <v>1274</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -6601,10 +6625,10 @@
         <v>3501</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>416</v>
@@ -6640,10 +6664,10 @@
         <v>418</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -6652,10 +6676,10 @@
         <v>2578</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>422</v>
@@ -6688,13 +6712,13 @@
         <v>11462</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>307</v>
+        <v>426</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>262</v>
+        <v>427</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -6703,13 +6727,13 @@
         <v>20398</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6748,13 @@
         <v>17886</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -6739,13 +6763,13 @@
         <v>15299</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>48</v>
@@ -6754,13 +6778,13 @@
         <v>33184</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,7 +6858,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6849,7 +6873,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6864,7 +6888,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6879,13 +6903,13 @@
         <v>1477</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -6894,13 +6918,13 @@
         <v>626</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>322</v>
+        <v>446</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -6909,13 +6933,13 @@
         <v>2104</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>64</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6936,7 +6960,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -6945,13 +6969,13 @@
         <v>765</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6960,13 +6984,13 @@
         <v>765</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>451</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6981,13 +7005,13 @@
         <v>6774</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -6996,13 +7020,13 @@
         <v>8544</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -7011,13 +7035,13 @@
         <v>15317</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7032,13 +7056,13 @@
         <v>19089</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -7047,13 +7071,13 @@
         <v>9615</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>305</v>
+        <v>466</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -7062,13 +7086,13 @@
         <v>28703</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,13 +7160,13 @@
         <v>634</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>379</v>
+        <v>157</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -7157,7 +7181,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -7172,7 +7196,7 @@
         <v>11</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>471</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7187,10 +7211,10 @@
         <v>5428</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>473</v>
+        <v>409</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>474</v>
@@ -7205,10 +7229,10 @@
         <v>475</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>476</v>
+        <v>252</v>
       </c>
       <c r="M29" s="7">
         <v>12</v>
@@ -7217,13 +7241,13 @@
         <v>7872</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7253,7 +7277,7 @@
         <v>7975</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>482</v>
@@ -7274,7 +7298,7 @@
         <v>485</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>486</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,13 +7313,13 @@
         <v>33395</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="H31" s="7">
         <v>67</v>
@@ -7304,13 +7328,13 @@
         <v>42535</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="M31" s="7">
         <v>114</v>
@@ -7319,13 +7343,13 @@
         <v>75931</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7364,13 @@
         <v>78789</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H32" s="7">
         <v>107</v>
@@ -7355,13 +7379,13 @@
         <v>68472</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M32" s="7">
         <v>219</v>
@@ -7370,13 +7394,13 @@
         <v>147261</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,7 +7476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4B75731-998B-423D-9D55-C13A16169F42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03129809-4C51-456A-83F8-240F6CFEB4FD}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7469,7 +7493,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7582,7 +7606,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -7597,7 +7621,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -7633,7 +7657,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7642,13 +7666,13 @@
         <v>461</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>508</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>509</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -7657,13 +7681,13 @@
         <v>856</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>510</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7678,7 +7702,7 @@
         <v>1283</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>288</v>
+        <v>511</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
@@ -7711,7 +7735,7 @@
         <v>515</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>516</v>
@@ -7762,10 +7786,10 @@
         <v>523</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7780,13 +7804,13 @@
         <v>7214</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -7795,13 +7819,13 @@
         <v>10174</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -7810,13 +7834,13 @@
         <v>17389</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7890,7 +7914,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7905,7 +7929,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -7935,13 +7959,13 @@
         <v>2071</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -7950,13 +7974,13 @@
         <v>1692</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>318</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -7965,13 +7989,13 @@
         <v>3762</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7986,13 +8010,13 @@
         <v>2361</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>546</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -8001,13 +8025,13 @@
         <v>704</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="M12" s="7">
         <v>4</v>
@@ -8016,13 +8040,13 @@
         <v>3065</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>320</v>
+        <v>551</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8037,13 +8061,13 @@
         <v>3856</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>549</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -8052,13 +8076,13 @@
         <v>2853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -8067,13 +8091,13 @@
         <v>6709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -8088,13 +8112,13 @@
         <v>20702</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H14" s="7">
         <v>24</v>
@@ -8103,13 +8127,13 @@
         <v>16272</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="M14" s="7">
         <v>54</v>
@@ -8118,13 +8142,13 @@
         <v>36972</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,7 +8204,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8198,7 +8222,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -8243,13 +8267,13 @@
         <v>1662</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -8258,13 +8282,13 @@
         <v>2151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -8273,13 +8297,13 @@
         <v>3814</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8294,13 +8318,13 @@
         <v>2239</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>330</v>
+        <v>579</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -8309,13 +8333,13 @@
         <v>1419</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -8324,13 +8348,13 @@
         <v>3658</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8345,13 +8369,13 @@
         <v>8051</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -8360,13 +8384,13 @@
         <v>5314</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>586</v>
+        <v>348</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="M19" s="7">
         <v>18</v>
@@ -8375,13 +8399,13 @@
         <v>13365</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8396,13 +8420,13 @@
         <v>20053</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H20" s="7">
         <v>22</v>
@@ -8411,13 +8435,13 @@
         <v>16284</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="M20" s="7">
         <v>46</v>
@@ -8426,13 +8450,13 @@
         <v>36337</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8506,7 +8530,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8521,7 +8545,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>600</v>
+        <v>482</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -8536,7 +8560,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8551,13 +8575,13 @@
         <v>852</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>602</v>
+        <v>540</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>292</v>
+        <v>604</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -8566,13 +8590,13 @@
         <v>2531</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>604</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -8581,13 +8605,13 @@
         <v>3384</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>153</v>
+        <v>608</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8602,13 +8626,13 @@
         <v>2494</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>608</v>
+        <v>559</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -8617,13 +8641,13 @@
         <v>4193</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -8632,13 +8656,13 @@
         <v>6687</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>539</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8653,13 +8677,13 @@
         <v>11212</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -8668,13 +8692,13 @@
         <v>7230</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -8683,13 +8707,13 @@
         <v>18443</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>399</v>
+        <v>623</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8704,13 +8728,13 @@
         <v>21184</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -8719,13 +8743,13 @@
         <v>22789</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
@@ -8734,13 +8758,13 @@
         <v>43973</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>632</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8814,7 +8838,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>471</v>
+        <v>634</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8844,7 +8868,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8859,13 +8883,13 @@
         <v>4980</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>19</v>
+        <v>637</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -8874,13 +8898,13 @@
         <v>6836</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>634</v>
+        <v>119</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -8889,13 +8913,13 @@
         <v>11815</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>328</v>
+        <v>641</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8910,13 +8934,13 @@
         <v>8377</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>638</v>
+        <v>353</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="H30" s="7">
         <v>9</v>
@@ -8925,13 +8949,13 @@
         <v>7642</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -8940,13 +8964,13 @@
         <v>16019</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>364</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8961,13 +8985,13 @@
         <v>26402</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="H31" s="7">
         <v>32</v>
@@ -8976,13 +9000,13 @@
         <v>18208</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="M31" s="7">
         <v>68</v>
@@ -8991,13 +9015,13 @@
         <v>44610</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9012,13 +9036,13 @@
         <v>69153</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>370</v>
+        <v>662</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="H32" s="7">
         <v>97</v>
@@ -9027,13 +9051,13 @@
         <v>65519</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="M32" s="7">
         <v>188</v>
@@ -9042,13 +9066,13 @@
         <v>134672</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
